--- a/part_3_cohere/analysis/dense_answer_relevance_results_data_multi_lang.xlsx
+++ b/part_3_cohere/analysis/dense_answer_relevance_results_data_multi_lang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26174624-2AB7-1449-8820-B137B2C4D703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E90FF0C-10BC-7A44-A810-0821270E0F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48940" yWindow="500" windowWidth="16700" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1833,7 +1833,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
